--- a/Employee_Reports28/Lani Fernando Kachchakaduge Q0207.xlsx
+++ b/Employee_Reports28/Lani Fernando Kachchakaduge Q0207.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -571,11 +568,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -620,11 +617,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -669,11 +666,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -718,11 +715,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -767,11 +764,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -816,11 +813,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -865,11 +862,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -914,11 +911,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -963,11 +960,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1012,11 +1009,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1061,11 +1058,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1110,11 +1107,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1159,11 +1156,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1206,11 +1203,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1254,11 +1251,11 @@
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>-95</v>
+        <v>-103</v>
       </c>
       <c r="I17" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J17" s="4" t="inlineStr">
@@ -1301,11 +1298,11 @@
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>-172</v>
+        <v>-180</v>
       </c>
       <c r="I18" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J18" s="4" t="inlineStr">
@@ -1348,11 +1345,11 @@
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>-21</v>
+        <v>-29</v>
       </c>
       <c r="I19" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J19" s="4" t="inlineStr">
@@ -1385,11 +1382,11 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>-21</v>
+        <v>-29</v>
       </c>
       <c r="I20" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J20" s="4" t="inlineStr">
@@ -1432,11 +1429,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1479,11 +1476,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1526,11 +1523,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1573,11 +1570,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1610,11 +1607,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1647,11 +1644,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
